--- a/result-processed/guokr/关键词占比年度趋势.xlsx
+++ b/result-processed/guokr/关键词占比年度趋势.xlsx
@@ -1848,15 +1848,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>6</xdr:rowOff>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19056</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>314324</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2143,8 +2143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
